--- a/biology/Zoologie/Asilidae/Asilidae.xlsx
+++ b/biology/Zoologie/Asilidae/Asilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asilidae (les asilidés,  asilides ou les mouches à toison), sont une famille d'insectes diptères prédateurs. Ils constituent un groupe homogène de prédateurs à l’état adulte, comptant environ 7 400 espèces dans le monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asilidae (les asilidés,  asilides ou les mouches à toison), sont une famille d'insectes diptères prédateurs. Ils constituent un groupe homogène de prédateurs à l’état adulte, comptant environ 7 400 espèces dans le monde.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prédateurs stricts spécialisés dans la capture d'invertébrés, les Asilides ont des adaptations morphologiques en lien avec cette spécialisation[2] : corps souvent massif à pilosité dense ; vertex enfoncé entre les yeux composés développés ; pattes longues et épineuses servant au maintien des proies ; appareil buccal robuste avec un « rostre »  surmonté d'un mystax, « moustache[3] » destinée à protéger les yeux de l'insecte des mouvements défensifs de la proie[4].
-Ils sont souvent parés de livrées aposématiques évoquant les motifs rayés des Hyménoptères[5].
-Leur taille est très variable, entre 4 et 40 mm. La femelle est habituellement plus grande et plus robuste que le mâle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prédateurs stricts spécialisés dans la capture d'invertébrés, les Asilides ont des adaptations morphologiques en lien avec cette spécialisation : corps souvent massif à pilosité dense ; vertex enfoncé entre les yeux composés développés ; pattes longues et épineuses servant au maintien des proies ; appareil buccal robuste avec un « rostre »  surmonté d'un mystax, « moustache » destinée à protéger les yeux de l'insecte des mouvements défensifs de la proie.
+Ils sont souvent parés de livrées aposématiques évoquant les motifs rayés des Hyménoptères.
+Leur taille est très variable, entre 4 et 40 mm. La femelle est habituellement plus grande et plus robuste que le mâle.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Asilides sont munis d'un « rostre » pointu dans lequel coulisse un hypopharynx robuste à apex vulnérant capable de percer les cuticules les plus dures de leurs proies capturées en vol lorsqu'il s'agit d'insectes volant[7]. Elles les ramènent généralement sur leur poste de guet et y injectent leur salive à enzymes neurotoxiques et protéolytique pour en aspirer le contenu prédigéré. Les différentes espèces possèdent également de longues pattes ravisseuses, munies d'épines et formant une cage pour enfermer les insectes capturés[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Asilides sont munis d'un « rostre » pointu dans lequel coulisse un hypopharynx robuste à apex vulnérant capable de percer les cuticules les plus dures de leurs proies capturées en vol lorsqu'il s'agit d'insectes volant. Elles les ramènent généralement sur leur poste de guet et y injectent leur salive à enzymes neurotoxiques et protéolytique pour en aspirer le contenu prédigéré. Les différentes espèces possèdent également de longues pattes ravisseuses, munies d'épines et formant une cage pour enfermer les insectes capturés.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 juil. 2010)[9], cette famille est divisée en 13 sous-familles :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 juil. 2010), cette famille est divisée en 13 sous-familles :
 sous-famille Apocleinae
 sous-famille Asilinae dont Pamponerus germanicus
 sous-famille Brachyrhopalinae
@@ -619,16 +637,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces insectes sont des prédateurs carnassiers aussi bien à l’état larvaire qu’adulte. Spécialisées dans la capture d’invertébrés, ces mouches voraces ont un régime alimentaire varié, composé d’autres mouches, de guêpes, de sauterelles, de libellules, de papillons dont des piérides, des mites, des punaises, des pucerons. Ils s’attaquent à des proies généralement plus petites qu’eux et parmi les espèces les plus abondantes, ce qui en fait des auxiliaires généralistes efficaces pour maintenir l’équilibre dans les jardins potagers et les vergers.
-Les prédateurs des asilidés sont les oiseaux, les grenouilles et les araignées[6].
+Les prédateurs des asilidés sont les oiseaux, les grenouilles et les araignées.
 			« Asile » ou « Mouche à toison » mâle (Dasypogon diadema), diptère prédateur
 			Leptogaster sp.
 			Eutolmus rufibarbis, mâle, des Eutolmus, des Asilidae.
 			Dysmachus trigonus, des Dysmachus, des Asilidae, ayant attrapé une abeille, en Roumanie. Aout 2022.
 			Asilidae près de la rivière Pendjari au Bénin. Novembre 2021.
-Selon ITIS      (4 juillet 2013)[10] :
+Selon ITIS      (4 juillet 2013) :
 sous-famille Asilinae
 sous-famille Dasypogoninae
 sous-famille Laphriinae
